--- a/2025.5.29   2 githb.test 파일에 엑셀 문서 만듬.xlsx
+++ b/2025.5.29   2 githb.test 파일에 엑셀 문서 만듬.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chief\Documents\my-project\커서ai 및 깃허브\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chief\Documents\github.test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0345B985-88CA-42DA-9378-2EC850152412}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485FDF6E-B098-4279-BA04-E8C0D77D72B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>자료 만들어봄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2025.5.29   15:48분 내 폴더에 문서 만들고 저장함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료 만들어봄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.6.2  11시 19분 폴더내 엑셀문서 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료 만들어봄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.6.2   11시 23분 폴더내 엑셀문서 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -357,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:D3"/>
+  <dimension ref="A3:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -376,6 +392,28 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2025.5.29   2 githb.test 파일에 엑셀 문서 만듬.xlsx
+++ b/2025.5.29   2 githb.test 파일에 엑셀 문서 만듬.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chief\Documents\github.test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485FDF6E-B098-4279-BA04-E8C0D77D72B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C653DD6-C259-407B-9B30-96F1525014A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>자료 만들어봄</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +49,18 @@
   </si>
   <si>
     <t>2025.6.2   11시 23분 폴더내 엑셀문서 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료 만들어봄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.6.2   11시 23분 폴더내 엑셀문서 추가입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2번페 sheet 만들어봄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:D7"/>
+  <dimension ref="A3:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -414,9 +427,41 @@
         <v>5</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{027AA955-48EC-43DB-8174-918F2749B10C}">
+  <dimension ref="A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>